--- a/data/georgia_census/adjara/qeda/education_graduates.xlsx
+++ b/data/georgia_census/adjara/qeda/education_graduates.xlsx
@@ -1830,13 +1830,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8C6BB2-447C-4FEE-8FAA-9DE2E2E5564D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB33E1D1-A98F-4348-9D99-6C3C18BA0EC7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7DBF522-1919-472D-A8BA-C71071649487}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846B3123-393B-4920-9C33-90E44D99D1B7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91002C70-17D3-4600-9947-CCB80EB6DD20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92663012-D86E-4B66-88BF-5D1BA25D19C8}"/>
 </file>